--- a/FileManager/Excel/ListHocVien.xlsx
+++ b/FileManager/Excel/ListHocVien.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DEVELOPER\Website\ManagerCenter\FileManager\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEVELOPER\WEBSITE\GitHub\Manager\FileManager\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10335"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6825"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>DANH SÁCH HỌC VIÊN LỚP START - A - 16040003008</t>
+    <t>DANH SÁCH HỌC VIÊN KHÓA KITTTY-1M2DF - 20160400000001</t>
   </si>
   <si>
     <t>STT</t>
@@ -50,10 +50,10 @@
     <t>HỌC PHÍ</t>
   </si>
   <si>
-    <t>Chuẩn</t>
-  </si>
-  <si>
-    <t>Nguyễn</t>
+    <t>Lê thị Huyền</t>
+  </si>
+  <si>
+    <t>Anh</t>
   </si>
 </sst>
 </file>
@@ -427,8 +427,8 @@
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5703125" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" customWidth="1"/>
@@ -475,7 +475,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4">
-        <v>1604001011</v>
+        <v>1604000010</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>8</v>
@@ -484,13 +484,13 @@
         <v>9</v>
       </c>
       <c r="E4" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="5">
-        <v>42372</v>
+        <v>34826</v>
       </c>
       <c r="G4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -498,6 +498,6 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/FileManager/Excel/ListHocVien.xlsx
+++ b/FileManager/Excel/ListHocVien.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>DANH SÁCH HỌC VIÊN KHÓA KITTTY-1M2DF - 20160400000001</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>Anh</t>
+  </si>
+  <si>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t>Chưa đóng</t>
   </si>
 </sst>
 </file>
@@ -431,7 +437,7 @@
     <col min="4" max="4" width="4.5703125" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
@@ -483,14 +489,14 @@
       <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4">
-        <v>2</v>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="F4" s="5">
         <v>34826</v>
       </c>
-      <c r="G4" s="4">
-        <v>0</v>
+      <c r="G4" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
